--- a/src/storage/ad-coupon/ls.xlsx
+++ b/src/storage/ad-coupon/ls.xlsx
@@ -49,16 +49,16 @@
     <t>是否商家券</t>
   </si>
   <si>
-    <t>百草味</t>
+    <t>百雀羚</t>
   </si>
   <si>
     <t>1284420000000080</t>
   </si>
   <si>
-    <t>299-215</t>
-  </si>
-  <si>
-    <t>pages/me/storeBrand/storeBrand?channel=i-ls_lssjqbcw1201&amp;brand_id=18</t>
+    <t>320-260</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-ls_lssjqbql1208&amp;brand_id=12</t>
   </si>
   <si>
     <t>是</t>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -97,13 +97,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -118,6 +111,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -126,23 +127,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,8 +149,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,6 +159,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -172,7 +174,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +188,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -195,13 +211,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -211,22 +220,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +232,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -261,25 +261,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,151 +387,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,15 +446,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,21 +468,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -502,6 +478,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +512,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -532,17 +538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,85 +551,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,65 +638,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,10 +706,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1040,7 +1043,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -1077,7 +1080,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1097,17 +1100,17 @@
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="H2" s="6">
-        <v>44168</v>
+      <c r="H2" s="7">
+        <v>44174</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>15</v>

--- a/src/storage/ad-coupon/ls.xlsx
+++ b/src/storage/ad-coupon/ls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>品牌</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>是否商家券</t>
+  </si>
+  <si>
+    <t>是否是h5</t>
   </si>
   <si>
     <t>百雀羚</t>
@@ -70,9 +73,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -97,7 +100,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,135 +242,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -261,67 +264,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,109 +420,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,8 +455,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,6 +466,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,6 +500,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -493,6 +520,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,194 +549,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1040,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -1055,68 +1061,76 @@
     <col min="5" max="5" width="76.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="21.8083333333333" customWidth="1"/>
     <col min="8" max="8" width="22.3583333333333" customWidth="1"/>
-    <col min="11" max="11" width="11.3833333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.2166666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.8833333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="41.9416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>44174</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
